--- a/biology/Botanique/Verrerie_de_La_Vieille-Loye/Verrerie_de_La_Vieille-Loye.xlsx
+++ b/biology/Botanique/Verrerie_de_La_Vieille-Loye/Verrerie_de_La_Vieille-Loye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La verrerie de La Vieille-Loye est une ancienne importante verrerie française du XIIIe siècle, en activité de 1295 à 1931, à La Vieille-Loye près de Dole dans le Jura en Bourgogne-Franche-Comté.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1295, cette verrerie est fondée dans le Val d'Amour de la forêt de Chaux (grosse productrice de bois au Moyen Âge avec entre autres les Baraques du 14 de la forêt de Chaux voisines...), à trois kilomètres en aval du village de La Vieille-Loye, près de Dole (alors capitale de la Franche-Comté, avec son château de Dole comme siège du Comté de Bourgogne des comtes palatins de Bourgogne) entre le Vignoble du Jura et le Vignoble de Bourgogne.
 			Cachet du verrier Duraquet, 1630.
@@ -538,7 +552,7 @@
 			Bouteilles de vin  anciennes du musée du vin de l'Hôtel des ducs de Bourgogne de Beaune.
 Au XVIIIe siècle, la verrerie produit près de 280 000 bouteilles par an, reconnaissables par leurs formes artisanales imparfaites. Elle crée et produit également les clavelins spécifiques au vin jaune, du vignoble du Jura voisin.
 Au XIXe siècle, la révolution industrielle accentue sa production : le chemin de fer arrive à la verrerie, et l'industrie Solvay voisine, bâtit un empire industriel en déposant le brevet du procédé Solvay, en exploitant le sel du Jura, pour l'utilisation du carbonate de soude comme fondant en remplacement de la potasse, pour abaisser le point de fusion du verre et maintenir son état pâteux plus longtemps. De par la haute qualité réputée de sa production, 80 % du million de bouteilles produites annuellement au début du XXe siècle sont destinés aux grandes maisons de Champagne : Lanson, Heidsieck, Monopole, Pol Roger, Moët &amp; Chandon, De Venoge, Roederer, Krug et Mercier, etc., et 20 % pour les clavelins du vignoble du Jura voisin, avec technique de cachet de verre apposé à chaud.
-Au XXe siècle, le phylloxéra anéantit le vignoble français, la Première Guerre mondiale, et la Grande Dépression de 1929, précipite la fin de cette industrie historique locale réputée, dont les fours à bois s’éteignent définitivement le 31 mai 1931, après plus de six cents ans d'activité. Elle est remplacée entre autres par l'industrie moderne de bouteille Saint-Gobain de Chalon-sur-Saône (et liste des entreprises du groupe Saint-Gobain). Les vestiges des bâtiments historiques de l'ancienne verrerie sont à ce jour reconvertis en logements privés et bâtiments d'exploitation agricole[1]. La verrerie de Passavant-la-Rochère fondée en 1475 au nord de la Franche Comté, est à ce jour la plus ancienne verrerie d'art traditionnelle en activité d'Europe, et un haut lieu de tourisme franc-comtois et vosgien.
+Au XXe siècle, le phylloxéra anéantit le vignoble français, la Première Guerre mondiale, et la Grande Dépression de 1929, précipite la fin de cette industrie historique locale réputée, dont les fours à bois s’éteignent définitivement le 31 mai 1931, après plus de six cents ans d'activité. Elle est remplacée entre autres par l'industrie moderne de bouteille Saint-Gobain de Chalon-sur-Saône (et liste des entreprises du groupe Saint-Gobain). Les vestiges des bâtiments historiques de l'ancienne verrerie sont à ce jour reconvertis en logements privés et bâtiments d'exploitation agricole. La verrerie de Passavant-la-Rochère fondée en 1475 au nord de la Franche Comté, est à ce jour la plus ancienne verrerie d'art traditionnelle en activité d'Europe, et un haut lieu de tourisme franc-comtois et vosgien.
 </t>
         </is>
       </c>
@@ -567,7 +581,9 @@
           <t>Technique historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sables sont chauffés jusqu’à fusion en pâte de verre, dans des fours chauffés au bois. La patte est ensuite soufflée par des maîtres verriers souffleur de verre pour donner une forme à la bouteille dans un creuset en terre réfractaire, remplacé plus tard par des moules en bronze, puis par des moules mécaniques. La bouteille est reprise pour former le goulot, par adjonction d'un fil de verre en fusion, puis la bouteille est cuite durant quatre à cinq jours, dans un four à 600 °C.
 </t>
@@ -598,7 +614,9 @@
           <t>Matières premières locales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bois de chauffe de la forêt de Chaux, plus importante forêt du royaume de France après la forêt d'Orléans, avec vingt mille hectares, qui aliment également en bois la saline royale d'Arc-et-Senans aux XVIIIe siècle et XIXe siècle, entre autres par l'activité des Baraques du 14 de la forêt de Chaux voisines...).
 Fondant à base de cendre de fougères, puis de potasse, puis de carbonate de soude de l'industrie Solvay, pour abaisser le point de fusion du verre et maintenir son état pâteux plus longtemps.
@@ -635,7 +653,9 @@
           <t>Quelques propriétaires successifs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1332 : Hugues de Vannans
 1364 : Perrenot le Verrier, puis ses fils après 1367
@@ -679,7 +699,9 @@
           <t>Quelques musées de bouteilles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Musée de la vigne et du vin du Jura du château Pécauld à Arbois (Vignoble du Jura)
 Hôtel des ducs de Bourgogne de Beaune (Vignoble de Bourgogne)
